--- a/Pokemon base stats.xlsx
+++ b/Pokemon base stats.xlsx
@@ -2022,7 +2022,8 @@
   <dimension ref="A1:AA152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
